--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adm-Calcrl.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H2">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J2">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.06383033333333</v>
+        <v>34.49888633333333</v>
       </c>
       <c r="N2">
-        <v>138.191491</v>
+        <v>103.496659</v>
       </c>
       <c r="O2">
-        <v>0.6011809800814781</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="P2">
-        <v>0.601180980081478</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="Q2">
-        <v>497.204831320031</v>
+        <v>401.1895156068542</v>
       </c>
       <c r="R2">
-        <v>4474.843481880279</v>
+        <v>3610.705640461688</v>
       </c>
       <c r="S2">
-        <v>0.1790282524409286</v>
+        <v>0.1530747376162548</v>
       </c>
       <c r="T2">
-        <v>0.1790282524409286</v>
+        <v>0.1530747376162549</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H3">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I3">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J3">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>24.118612</v>
       </c>
       <c r="N3">
-        <v>72.355836</v>
+        <v>72.35583600000001</v>
       </c>
       <c r="O3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="P3">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="Q3">
-        <v>260.332028933676</v>
+        <v>280.4767137088839</v>
       </c>
       <c r="R3">
-        <v>2342.988260403084</v>
+        <v>2524.290423379956</v>
       </c>
       <c r="S3">
-        <v>0.0937376012028297</v>
+        <v>0.1070165038922152</v>
       </c>
       <c r="T3">
-        <v>0.0937376012028297</v>
+        <v>0.1070165038922152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.793823</v>
+        <v>11.629057</v>
       </c>
       <c r="H4">
-        <v>32.381469</v>
+        <v>34.887171</v>
       </c>
       <c r="I4">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977661</v>
       </c>
       <c r="J4">
-        <v>0.2977942722284143</v>
+        <v>0.3062678464977662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.439792666666666</v>
+        <v>10.406952</v>
       </c>
       <c r="N4">
-        <v>19.319378</v>
+        <v>31.220856</v>
       </c>
       <c r="O4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="P4">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="Q4">
-        <v>69.509982200698</v>
+        <v>121.023038004264</v>
       </c>
       <c r="R4">
-        <v>625.589839806282</v>
+        <v>1089.207342038376</v>
       </c>
       <c r="S4">
-        <v>0.025028418584656</v>
+        <v>0.04617660498929609</v>
       </c>
       <c r="T4">
-        <v>0.025028418584656</v>
+        <v>0.04617660498929609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>71.412368</v>
       </c>
       <c r="I5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J5">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>46.06383033333333</v>
+        <v>34.49888633333333</v>
       </c>
       <c r="N5">
-        <v>138.191491</v>
+        <v>103.496659</v>
       </c>
       <c r="O5">
-        <v>0.6011809800814781</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="P5">
-        <v>0.601180980081478</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="Q5">
-        <v>1096.509067751188</v>
+        <v>821.2157221420568</v>
       </c>
       <c r="R5">
-        <v>9868.581609760688</v>
+        <v>7390.941499278511</v>
       </c>
       <c r="S5">
-        <v>0.3948193778888936</v>
+        <v>0.3133366558771829</v>
       </c>
       <c r="T5">
-        <v>0.3948193778888935</v>
+        <v>0.313336655877183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>71.412368</v>
       </c>
       <c r="I6">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J6">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,25 +803,25 @@
         <v>24.118612</v>
       </c>
       <c r="N6">
-        <v>72.355836</v>
+        <v>72.35583600000001</v>
       </c>
       <c r="O6">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="P6">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="Q6">
-        <v>574.1223985977387</v>
+        <v>574.1223985977388</v>
       </c>
       <c r="R6">
-        <v>5167.101587379648</v>
+        <v>5167.101587379649</v>
       </c>
       <c r="S6">
-        <v>0.2067239158462427</v>
+        <v>0.2190576575562491</v>
       </c>
       <c r="T6">
-        <v>0.2067239158462427</v>
+        <v>0.2190576575562491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>71.412368</v>
       </c>
       <c r="I7">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645606</v>
       </c>
       <c r="J7">
-        <v>0.6567396357672255</v>
+        <v>0.6269156120645607</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.439792666666666</v>
+        <v>10.406952</v>
       </c>
       <c r="N7">
-        <v>19.319378</v>
+        <v>31.220856</v>
       </c>
       <c r="O7">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="P7">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="Q7">
-        <v>153.2936145852338</v>
+        <v>247.728361994112</v>
       </c>
       <c r="R7">
-        <v>1379.642531267104</v>
+        <v>2229.555257947008</v>
       </c>
       <c r="S7">
-        <v>0.05519634203208921</v>
+        <v>0.09452129863112857</v>
       </c>
       <c r="T7">
-        <v>0.05519634203208921</v>
+        <v>0.0945212986311286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H8">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I8">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J8">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.06383033333333</v>
+        <v>34.49888633333333</v>
       </c>
       <c r="N8">
-        <v>138.191491</v>
+        <v>103.496659</v>
       </c>
       <c r="O8">
-        <v>0.6011809800814781</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="P8">
-        <v>0.601180980081478</v>
+        <v>0.4998067520528027</v>
       </c>
       <c r="Q8">
-        <v>75.9113344815099</v>
+        <v>87.52500858460489</v>
       </c>
       <c r="R8">
-        <v>683.202010333589</v>
+        <v>787.725077261444</v>
       </c>
       <c r="S8">
-        <v>0.02733334975165598</v>
+        <v>0.03339535855936496</v>
       </c>
       <c r="T8">
-        <v>0.02733334975165598</v>
+        <v>0.03339535855936496</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H9">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I9">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J9">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>24.118612</v>
       </c>
       <c r="N9">
-        <v>72.355836</v>
+        <v>72.35583600000001</v>
       </c>
       <c r="O9">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="P9">
-        <v>0.3147730159528758</v>
+        <v>0.3494212830891987</v>
       </c>
       <c r="Q9">
-        <v>39.74649979198267</v>
+        <v>61.18985123033067</v>
       </c>
       <c r="R9">
-        <v>357.718498127844</v>
+        <v>550.708661072976</v>
       </c>
       <c r="S9">
-        <v>0.01431149890380342</v>
+        <v>0.02334712164073439</v>
       </c>
       <c r="T9">
-        <v>0.01431149890380343</v>
+        <v>0.0233471216407344</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.647959666666667</v>
+        <v>2.537038666666667</v>
       </c>
       <c r="H10">
-        <v>4.943879000000001</v>
+        <v>7.611116</v>
       </c>
       <c r="I10">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="J10">
-        <v>0.0454660920043603</v>
+        <v>0.06681654143767324</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.439792666666666</v>
+        <v>10.406952</v>
       </c>
       <c r="N10">
-        <v>19.319378</v>
+        <v>31.220856</v>
       </c>
       <c r="O10">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="P10">
-        <v>0.0840460039656461</v>
+        <v>0.1507719648579985</v>
       </c>
       <c r="Q10">
-        <v>10.61251857636245</v>
+        <v>26.402839626144</v>
       </c>
       <c r="R10">
-        <v>95.51266718726201</v>
+        <v>237.625556635296</v>
       </c>
       <c r="S10">
-        <v>0.003821243348900896</v>
+        <v>0.01007406123757387</v>
       </c>
       <c r="T10">
-        <v>0.003821243348900897</v>
+        <v>0.01007406123757387</v>
       </c>
     </row>
   </sheetData>
